--- a/Server/exam_students.xlsx
+++ b/Server/exam_students.xlsx
@@ -428,7 +428,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
